--- a/10-диаграммы/5-спарклайны.xlsx
+++ b/10-диаграммы/5-спарклайны.xlsx
@@ -493,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -959,7 +959,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup type="stacked" displayEmptyCellsAs="gap" negative="1">
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -970,24 +970,88 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
+              <xm:f>VAS_Beeline!B2:G2</xm:f>
+              <xm:sqref>H2</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>VAS_Beeline!B3:G3</xm:f>
+              <xm:sqref>H3</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>VAS_Beeline!B4:G4</xm:f>
+              <xm:sqref>H4</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>VAS_Beeline!B5:G5</xm:f>
+              <xm:sqref>H5</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>VAS_Beeline!B6:G6</xm:f>
+              <xm:sqref>H6</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>VAS_Beeline!B10:G10</xm:f>
+              <xm:sqref>H10</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>VAS_Beeline!B11:G11</xm:f>
+              <xm:sqref>H11</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>VAS_Beeline!B12:G12</xm:f>
+              <xm:sqref>H12</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>VAS_Beeline!B13:G13</xm:f>
+              <xm:sqref>H13</xm:sqref>
+            </x14:sparkline>
+            <x14:sparkline>
+              <xm:f>VAS_Beeline!B14:G14</xm:f>
+              <xm:sqref>H14</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
               <xm:f>VAS_Beeline!B18:G18</xm:f>
-              <xm:sqref>I18</xm:sqref>
+              <xm:sqref>H18</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
               <xm:f>VAS_Beeline!B19:G19</xm:f>
-              <xm:sqref>I19</xm:sqref>
+              <xm:sqref>H19</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
               <xm:f>VAS_Beeline!B20:G20</xm:f>
-              <xm:sqref>I20</xm:sqref>
+              <xm:sqref>H20</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
               <xm:f>VAS_Beeline!B21:G21</xm:f>
-              <xm:sqref>I21</xm:sqref>
+              <xm:sqref>H21</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
               <xm:f>VAS_Beeline!B22:G22</xm:f>
-              <xm:sqref>I22</xm:sqref>
+              <xm:sqref>H22</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -1023,7 +1087,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
+        <x14:sparklineGroup type="stacked" displayEmptyCellsAs="gap" negative="1">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -1035,87 +1099,23 @@
           <x14:sparklines>
             <x14:sparkline>
               <xm:f>VAS_Beeline!B18:G18</xm:f>
-              <xm:sqref>H18</xm:sqref>
+              <xm:sqref>I18</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
               <xm:f>VAS_Beeline!B19:G19</xm:f>
-              <xm:sqref>H19</xm:sqref>
+              <xm:sqref>I19</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
               <xm:f>VAS_Beeline!B20:G20</xm:f>
-              <xm:sqref>H20</xm:sqref>
+              <xm:sqref>I20</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
               <xm:f>VAS_Beeline!B21:G21</xm:f>
-              <xm:sqref>H21</xm:sqref>
+              <xm:sqref>I21</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
               <xm:f>VAS_Beeline!B22:G22</xm:f>
-              <xm:sqref>H22</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>VAS_Beeline!B10:G10</xm:f>
-              <xm:sqref>H10</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>VAS_Beeline!B11:G11</xm:f>
-              <xm:sqref>H11</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>VAS_Beeline!B12:G12</xm:f>
-              <xm:sqref>H12</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>VAS_Beeline!B13:G13</xm:f>
-              <xm:sqref>H13</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>VAS_Beeline!B14:G14</xm:f>
-              <xm:sqref>H14</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>VAS_Beeline!B2:G2</xm:f>
-              <xm:sqref>H2</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>VAS_Beeline!B3:G3</xm:f>
-              <xm:sqref>H3</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>VAS_Beeline!B4:G4</xm:f>
-              <xm:sqref>H4</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>VAS_Beeline!B5:G5</xm:f>
-              <xm:sqref>H5</xm:sqref>
-            </x14:sparkline>
-            <x14:sparkline>
-              <xm:f>VAS_Beeline!B6:G6</xm:f>
-              <xm:sqref>H6</xm:sqref>
+              <xm:sqref>I22</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
